--- a/rnn-simple/sentiment_dataset.xlsx
+++ b/rnn-simple/sentiment_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\recurrent-neuron-netwwork\rnn-simple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents For Study\Source Code\RNN_ver2\RNNs\rnn-simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF667F-75CA-47A2-8B75-BBEFD8E8A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A96AC21-047E-4F0E-81FA-102BF27C5CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>I love this product</t>
   </si>
@@ -100,6 +100,405 @@
   </si>
   <si>
     <t>This product is not amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality of this product exceeded my expectations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service was quick and efficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love the design of this phone case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The food at the restaurant was absolutely delicious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m really impressed with the customer service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This laptop is perfect for my work needs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The delivery took longer than expected, but the product is worth it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a fantastic experience shopping here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This book is a must-read for anyone interested in history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app interface is very user-friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was disappointed by the quality of this jacket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coffee tasted amazing and fresh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This vacation package was a great value for the price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer support was incredibly helpful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love how this camera captures vibrant colors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The packaging was neat and secure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was informative and well-organized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not satisfied with the battery life of this phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The gym facilities are clean and well-maintained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love the smooth texture of this lotion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This game has excellent graphics and gameplay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel room was spacious and comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shoes fit perfectly and feel great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instruction manual was easy to follow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a great time at the concert last night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This online store offers a wide variety of products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fabric of this dress feels soft and luxurious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie had an interesting plot and great acting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The headphones provide clear and crisp sound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service at the café was a bit slow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This vacuum cleaner is lightweight and powerful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the tutorial on this website very helpful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The event was well-organized and fun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish the color options were more diverse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hiking trail offered breathtaking views </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This software has improved my productivity significantly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service team was polite and efficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The car drives smoothly and handles well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class size was small, which allowed for more interaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The material of this shirt feels very durable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This blender is powerful and easy to clean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instructions were clear and easy to understand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concert was energetic and full of life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not happy with the durability of these shoes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant ambiance was warm and inviting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This watch is stylish and comfortable to wear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flight was smooth, and the staff was friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a pleasant experience using this app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paint colors are vibrant and long-lasting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The training program was both challenging and rewarding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie had some great visual effects but lacked substance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service left a lot to be desired </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was not as clean as I expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The food took too long to arrive and was cold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The course was boring and didn’t meet my expectations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This product broke after just one week of use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The website was difficult to navigate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m very happy with my purchase, it’s exactly what I needed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The delivery driver was rude and unprofessional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software crashed multiple times during use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The view from my hotel room was breathtaking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instructions were unclear and confusing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was friendly and very accommodating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I received the wrong order and had to wait days for a replacement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The design of this item is modern and sleek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound quality on these speakers is awful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love how easy it is to set up and use this device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie was way too long and boring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The food portions were small and overpriced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shopping experience was smooth and hassle-free </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service was terrible, I will not return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff went above and beyond to make sure we were comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product was faulty right out of the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer support team was unresponsive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I absolutely love this painting, it’s a great addition to my home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app kept crashing and freezing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The views from the hiking trail were absolutely stunning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The material of this sweater feels cheap and flimsy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m highly satisfied with this purchase and would recommend it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concert was overcrowded and uncomfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant had a great atmosphere and friendly staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie plot was predictable and unoriginal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shoes are very comfortable and well-made </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The repair service was quick and efficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The meal was undercooked and lacked flavor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel provided excellent service throughout our stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software interface is clunky and hard to use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The event was a total disaster, nothing went as planned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product looks exactly like it did in the pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m very disappointed with the quality of this item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was well-paced and engaging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product arrived damaged and missing parts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mobile app runs smoothly and without any issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service was impeccable, highly recommend this restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battery life on this phone is terrible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The performance was fantastic, the actors were great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The delivery was fast and the product was well-packaged </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app interface is confusing and hard to navigate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The workout program was intense but effective </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not happy with how the product performs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service was unhelpful and rude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel staff made our stay very pleasant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This game is so addictive and fun to play </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The experience left me feeling frustrated and unsatisfied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spa treatment was relaxing and rejuvenating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was underwhelmed by the quality of the food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concert was loud and disorganized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software update fixed all the previous issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The design of this chair is beautiful and ergonomic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not impressed with the build quality of this laptop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coffee shop had a cozy and welcoming vibe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phone overheats after just a few minutes of use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The museum exhibit was fascinating and well-curated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn’t recommend this product to anyone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The course was insightful and informative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room service was slow and the food was cold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel exceeded all my expectations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The color of the product is nothing like the pictures online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very attentive and helpful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was one of the best meals I’ve ever had </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service at the café was terrible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie had great special effects, but the story was weak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fitness center has everything I need for a good workout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product doesn’t work as advertised </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The vacation experience was unforgettable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to wait a long time for my order to arrive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concert venue was overcrowded and uncomfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product is very durable and well-made </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service department didn’t resolve my issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality of the material is top-notch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book was a bit slow at the beginning, but picked up later </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app drains my phone’s battery quickly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m happy with the results after using this skincare product </t>
   </si>
 </sst>
 </file>
@@ -425,19 +824,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="64.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -445,7 +844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -461,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -469,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -485,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -493,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -501,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -509,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -517,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -525,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -533,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -541,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -549,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -557,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -565,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -573,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -581,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -589,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -597,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -605,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -613,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -621,11 +1020,1080 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158">
         <v>0</v>
       </c>
     </row>
